--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/主营业务税金及附加.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/主营业务税金及附加.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,383 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4.59079</v>
-      </c>
-      <c r="C2" t="n">
-        <v>74.43265</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.25193</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00019</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9917899999999999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>32.1021</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8.148440000000001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6.79095</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.24522</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.72553</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1173.45</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.25222</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.5911999999999999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>6.51133</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6.02394</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.12227</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.71673</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.6672400000000001</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4.30149</v>
-      </c>
-      <c r="U2" t="n">
-        <v>15.16179</v>
-      </c>
-      <c r="V2" t="n">
-        <v>554.8151800000001</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.59251</v>
-      </c>
-      <c r="X2" t="n">
-        <v>12.093</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>29.84577</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>7.06242</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>7.25646</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.46855</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>165.14005</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>73.85851</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>9.95252</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1.93529</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2.672</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1.75251</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>11.54429</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>3.67393</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>2.57695</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>4.0044</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>87.35284</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>25.66978</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>2.42858</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4.91878</v>
-      </c>
-      <c r="C3" t="n">
-        <v>83.05864</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.05608</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>1.06427</v>
-      </c>
-      <c r="G3" t="n">
-        <v>33.6545</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.57843</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.51193</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.44719</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.70904</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1294.65</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.29273</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.65189</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6.8322</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.7147</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.06038</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.26657</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.83641</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4.10711</v>
-      </c>
-      <c r="U3" t="n">
-        <v>11.08884</v>
-      </c>
-      <c r="V3" t="n">
-        <v>633.91913</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.78117</v>
-      </c>
-      <c r="X3" t="n">
-        <v>14.91237</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>37.34152</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>7.82877</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>8.393840000000001</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.68724</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>182.80608</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>70.91092999999999</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>9.76366</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1.73881</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>2.87714</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>2.94246</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9.51695</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3.72276</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>2.81995</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>7.27756</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>95.87692</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>26.5388</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>2.56701</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4.98529</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100.76992</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.05654</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>0.85948</v>
-      </c>
-      <c r="G4" t="n">
-        <v>32.67503</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.59487</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.048590000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.52236</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.76558</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1471.01</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.18151</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.42956</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8.37543</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.91811</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.15436</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.24473</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.73851</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.84621</v>
-      </c>
-      <c r="U4" t="n">
-        <v>11.56393</v>
-      </c>
-      <c r="V4" t="n">
-        <v>758.1710399999999</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.91789</v>
-      </c>
-      <c r="X4" t="n">
-        <v>18.90668</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>40.19768</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>8.234859999999999</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>8.642139999999999</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.56245</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>190.13132</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>77.584</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>9.933199999999999</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2.36416</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>3.12996</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2.72403</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>9.692589999999999</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>4.21878</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>2.58764</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>6.28998</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>102.71234</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>31.08833</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>2.37064</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
